--- a/output/ESIS.table.compare.xlsx
+++ b/output/ESIS.table.compare.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{51C3DB7D-7426-4CFC-B8A1-E47B9FF962FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F935BFB-FC70-4C02-ADE5-6826848B9B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESIS.table" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,14 +1041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3:U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P10" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>1.5</v>
       </c>
       <c r="T10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q11" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1.5</v>
       </c>
       <c r="T11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1679,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" s="8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S12" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" s="3">
         <v>5</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R13" s="3">
         <v>1</v>
@@ -1770,13 +1770,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1800,10 +1800,10 @@
         <v>15</v>
       </c>
       <c r="P14" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" s="8">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="R14" s="3">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="8">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="8"/>
@@ -1915,13 +1915,13 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="7">
         <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>3</v>
       </c>
       <c r="G17" s="1">
         <v>0.2</v>
@@ -1939,13 +1939,13 @@
         <v>11</v>
       </c>
       <c r="N17" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O17" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P17" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="7">
         <v>4</v>
@@ -1974,13 +1974,13 @@
         <v>0.2</v>
       </c>
       <c r="D18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
         <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>2</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1998,16 +1998,16 @@
         <v>12</v>
       </c>
       <c r="N18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="8">
         <v>0.4</v>
       </c>
-      <c r="O18" s="8">
-        <v>1</v>
-      </c>
       <c r="P18" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0.1</v>
@@ -2033,13 +2033,13 @@
         <v>0.2</v>
       </c>
       <c r="D19" s="8">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -2057,16 +2057,16 @@
         <v>13</v>
       </c>
       <c r="N19" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O19" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P19" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R19" s="3">
         <v>0.5</v>
@@ -2089,16 +2089,16 @@
         <v>14</v>
       </c>
       <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3">
         <v>10</v>
       </c>
-      <c r="D20" s="8">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
       <c r="F20" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -2116,16 +2116,16 @@
         <v>14</v>
       </c>
       <c r="N20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O20" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="R20" s="3">
         <v>3</v>
@@ -2148,16 +2148,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D21" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -2175,16 +2175,16 @@
         <v>15</v>
       </c>
       <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="8">
+        <v>20</v>
+      </c>
+      <c r="P21" s="3">
         <v>10</v>
       </c>
-      <c r="O21" s="8">
+      <c r="Q21" s="8">
         <v>30</v>
-      </c>
-      <c r="P21" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="8">
-        <v>25</v>
       </c>
       <c r="R21" s="3">
         <v>0.4</v>
@@ -2479,7 +2479,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G27" s="3">
         <v>65</v>
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="N27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27" s="8">
         <v>10</v>
@@ -2532,13 +2532,13 @@
         <v>20</v>
       </c>
       <c r="D28" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3">
         <v>20</v>
       </c>
       <c r="F28" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -2666,16 +2666,16 @@
         <v>11</v>
       </c>
       <c r="C31" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G31" s="1">
         <v>4</v>
@@ -2693,13 +2693,13 @@
         <v>11</v>
       </c>
       <c r="N31" s="1">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="O31" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="7">
         <v>35</v>
@@ -2725,16 +2725,16 @@
         <v>12</v>
       </c>
       <c r="C32" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
@@ -2752,13 +2752,13 @@
         <v>12</v>
       </c>
       <c r="N32" s="3">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="O32" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P32" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="8">
         <v>35</v>
@@ -2784,13 +2784,13 @@
         <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="8">
         <v>55</v>
@@ -2811,13 +2811,13 @@
         <v>13</v>
       </c>
       <c r="N33" s="3">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="O33" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="8">
         <v>55</v>
@@ -2843,16 +2843,16 @@
         <v>14</v>
       </c>
       <c r="C34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
         <v>0.5</v>
       </c>
-      <c r="D34" s="8">
+      <c r="F34" s="8">
         <v>3</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2</v>
       </c>
       <c r="G34" s="3">
         <v>5</v>
@@ -2870,16 +2870,16 @@
         <v>14</v>
       </c>
       <c r="N34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O34" s="8">
         <v>2</v>
       </c>
-      <c r="O34" s="8">
-        <v>5</v>
-      </c>
       <c r="P34" s="3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q34" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R34" s="3">
         <v>25</v>
@@ -2902,16 +2902,16 @@
         <v>15</v>
       </c>
       <c r="C35" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
         <v>0.5</v>
       </c>
-      <c r="D35" s="8">
+      <c r="F35" s="8">
         <v>3</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1.5</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>15</v>
       </c>
       <c r="N35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="8">
         <v>2</v>
       </c>
-      <c r="O35" s="8">
-        <v>5</v>
-      </c>
       <c r="P35" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q35" s="8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="R35" s="3">
         <v>0.5</v>
@@ -3060,10 +3060,10 @@
         <v>0.1</v>
       </c>
       <c r="P38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R38" s="1">
         <v>20</v>
@@ -3119,10 +3119,10 @@
         <v>0.1</v>
       </c>
       <c r="P39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q39" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R39" s="3">
         <v>20</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -3178,10 +3178,10 @@
         <v>0.1</v>
       </c>
       <c r="P40" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="R40" s="3">
         <v>20</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="D41" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G41" s="3">
         <v>4</v>
@@ -3234,13 +3234,13 @@
         <v>0.2</v>
       </c>
       <c r="O41" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P41" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q41" s="8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R41" s="3">
         <v>45</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3293,13 +3293,13 @@
         <v>0.2</v>
       </c>
       <c r="O42" s="8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P42" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42" s="8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R42" s="3">
         <v>0.5</v>
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F45" s="7">
         <v>5</v>
@@ -3427,10 +3427,10 @@
         <v>11</v>
       </c>
       <c r="N45" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O45" s="7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P45" s="1">
         <v>0.5</v>
@@ -3462,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F46" s="8">
         <v>5</v>
@@ -3486,10 +3486,10 @@
         <v>12</v>
       </c>
       <c r="N46" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O46" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P46" s="3">
         <v>0.5</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="8">
         <v>45</v>
@@ -3545,16 +3545,16 @@
         <v>13</v>
       </c>
       <c r="N47" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O47" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R47" s="3">
         <v>10</v>
@@ -3580,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="8">
         <v>55</v>
@@ -3604,13 +3604,13 @@
         <v>14</v>
       </c>
       <c r="N48" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O48" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48" s="8">
         <v>55</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="D49" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>15</v>
       </c>
       <c r="N49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" s="8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="8">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R49" s="3">
         <v>0.4</v>
@@ -3808,16 +3808,16 @@
         <v>11</v>
       </c>
       <c r="N52" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O52" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P52" s="1">
         <v>0</v>
       </c>
       <c r="Q52" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R52" s="1">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>12</v>
       </c>
       <c r="N53" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O53" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
       </c>
       <c r="Q53" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R53" s="3">
         <v>0.4</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3926,16 +3926,16 @@
         <v>13</v>
       </c>
       <c r="N54" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O54" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P54" s="3">
         <v>0.1</v>
       </c>
       <c r="Q54" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R54" s="3">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="3">
         <v>40</v>
@@ -3985,16 +3985,16 @@
         <v>14</v>
       </c>
       <c r="N55" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="8">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="P55" s="3">
         <v>0.1</v>
       </c>
       <c r="Q55" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R55" s="3">
         <v>40</v>
@@ -4020,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="3">
         <v>5</v>
@@ -4044,16 +4044,16 @@
         <v>15</v>
       </c>
       <c r="N56" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O56" s="8">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="P56" s="3">
         <v>0.1</v>
       </c>
       <c r="Q56" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R56" s="3">
         <v>30</v>
@@ -4147,7 +4147,7 @@
       <c r="U58" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U58"/>
+  <autoFilter ref="A2:U58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C3:J58">
     <cfRule type="dataBar" priority="2">
       <dataBar>

--- a/output/ESIS.table.compare.xlsx
+++ b/output/ESIS.table.compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\match_pedon_site\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F935BFB-FC70-4C02-ADE5-6826848B9B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740EA14A-F7D8-4297-AB46-82A4C3B3E083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,10 +1045,10 @@
   <dimension ref="A1:U58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3:U58"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1921,7 @@
         <v>1.5</v>
       </c>
       <c r="F17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
         <v>0.2</v>
@@ -1939,16 +1939,16 @@
         <v>11</v>
       </c>
       <c r="N17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="7">
         <v>0.2</v>
       </c>
-      <c r="O17" s="7">
-        <v>0.5</v>
-      </c>
       <c r="P17" s="1">
         <v>1</v>
       </c>
       <c r="Q17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" s="1">
         <v>0.1</v>
@@ -1998,10 +1998,10 @@
         <v>12</v>
       </c>
       <c r="N18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="8">
         <v>0.2</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0.4</v>
       </c>
       <c r="P18" s="3">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -2057,16 +2057,16 @@
         <v>13</v>
       </c>
       <c r="N19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="O19" s="8">
         <v>0.2</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0.5</v>
       </c>
       <c r="P19" s="3">
         <v>10</v>
       </c>
       <c r="Q19" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="R19" s="3">
         <v>0.5</v>
@@ -2089,16 +2089,16 @@
         <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3">
         <v>10</v>
       </c>
       <c r="F20" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -2116,16 +2116,16 @@
         <v>14</v>
       </c>
       <c r="N20" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O20" s="8">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="P20" s="3">
         <v>10</v>
       </c>
       <c r="Q20" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="R20" s="3">
         <v>3</v>
@@ -2148,7 +2148,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8">
         <v>45</v>
@@ -2157,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -2175,16 +2175,16 @@
         <v>15</v>
       </c>
       <c r="N21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P21" s="3">
         <v>10</v>
       </c>
       <c r="Q21" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R21" s="3">
         <v>0.4</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="8"/>
@@ -2612,8 +2612,12 @@
       <c r="O29" s="8">
         <v>20</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="8"/>
+      <c r="P29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0.5</v>
+      </c>
       <c r="R29" s="3"/>
       <c r="S29" s="8"/>
       <c r="T29" s="3"/>
@@ -2651,8 +2655,12 @@
       <c r="O30" s="9">
         <v>4</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="9"/>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
       <c r="R30" s="5"/>
       <c r="S30" s="9"/>
       <c r="T30" s="5"/>
@@ -3030,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -3057,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Q38" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R38" s="1">
         <v>20</v>
@@ -3089,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -3116,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="O39" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="Q39" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R39" s="3">
         <v>20</v>
@@ -3148,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
         <v>0.1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
       </c>
       <c r="F40" s="8">
         <v>20</v>
@@ -3175,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="O40" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="Q40" s="8">
         <v>25</v>
@@ -3207,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -3234,10 +3242,10 @@
         <v>0.2</v>
       </c>
       <c r="O41" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P41" s="3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" s="8">
         <v>20</v>
@@ -3266,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -3293,10 +3301,10 @@
         <v>0.2</v>
       </c>
       <c r="O42" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P42" s="3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="Q42" s="8">
         <v>20</v>
@@ -3790,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -3811,7 +3819,7 @@
         <v>0.2</v>
       </c>
       <c r="O52" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P52" s="1">
         <v>0</v>
@@ -3849,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -3870,13 +3878,13 @@
         <v>0.2</v>
       </c>
       <c r="O53" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P53" s="3">
         <v>0</v>
       </c>
       <c r="Q53" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R53" s="3">
         <v>0.4</v>
@@ -3929,7 +3937,7 @@
         <v>0.2</v>
       </c>
       <c r="O54" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>0.1</v>
@@ -3988,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P55" s="3">
         <v>0.1</v>
